--- a/examples/EMTF_vu13p/src/protocol_25g.xlsx
+++ b/examples/EMTF_vu13p/src/protocol_25g.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="25g_mgt_atts" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="1145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="1143">
   <si>
     <t xml:space="preserve">// path</t>
   </si>
@@ -3353,12 +3353,6 @@
   </si>
   <si>
     <t xml:space="preserve">should be 4’b1010 for 800 mV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RXPD, TXPD,QPLLPD,CPLLPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set all of these to all 1, to have power down by default</t>
   </si>
   <si>
     <t xml:space="preserve">If RXSLIDE is used, set the following:</t>
@@ -3593,8 +3587,8 @@
   </sheetPr>
   <dimension ref="A1:D727"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A289" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A306" activeCellId="0" sqref="A306"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A509" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A525" activeCellId="1" sqref="C21:H21 A525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10055,7 +10049,7 @@
         <v>818</v>
       </c>
       <c r="B646" s="4" t="s">
-        <v>115</v>
+        <v>259</v>
       </c>
       <c r="C646" s="4"/>
       <c r="D646" s="4"/>
@@ -10615,7 +10609,7 @@
         <v>877</v>
       </c>
       <c r="B702" s="4" t="s">
-        <v>115</v>
+        <v>259</v>
       </c>
       <c r="C702" s="4"/>
       <c r="D702" s="4"/>
@@ -10858,14 +10852,14 @@
   </sheetPr>
   <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B144" activeCellId="1" sqref="C21:H21 B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="29.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="32.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
@@ -11160,7 +11154,8 @@
       <c r="C22" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="D22" s="6" t="b">
+      <c r="D22" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -11174,7 +11169,8 @@
       <c r="C23" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="D23" s="6" t="b">
+      <c r="D23" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F23" s="0" t="s">
@@ -11191,7 +11187,8 @@
       <c r="C24" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="6" t="b">
+      <c r="D24" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -11205,7 +11202,8 @@
       <c r="C25" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="D25" s="6" t="b">
+      <c r="D25" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -11219,7 +11217,8 @@
       <c r="C26" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="D26" s="6" t="b">
+      <c r="D26" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -11233,7 +11232,8 @@
       <c r="C27" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="D27" s="6" t="b">
+      <c r="D27" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -11247,7 +11247,8 @@
       <c r="C28" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="D28" s="6" t="b">
+      <c r="D28" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -11261,7 +11262,8 @@
       <c r="C29" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="D29" s="6" t="b">
+      <c r="D29" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -12475,7 +12477,8 @@
       <c r="C102" s="0" t="s">
         <v>520</v>
       </c>
-      <c r="D102" s="6" t="b">
+      <c r="D102" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -12916,7 +12919,7 @@
         <v>1044</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C143" s="0"/>
       <c r="D143" s="0"/>
@@ -13320,7 +13323,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C21:H21 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13390,8 +13393,8 @@
   </sheetPr>
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13526,16 +13529,11 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="7" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>1111</v>
-      </c>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13576,12 +13574,12 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="3" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>1101</v>
@@ -13589,133 +13587,133 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="1" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
   </sheetData>
